--- a/exeSecond/exe/V2/Документы/box.xlsx
+++ b/exeSecond/exe/V2/Документы/box.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\GitHub\WORK\exeSecond\exe\V2\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8623F2E-6769-403D-A812-7FC7B818829A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507B9E3A-D845-41B3-A0BE-4C57BFDCF59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4596" yWindow="1056" windowWidth="17280" windowHeight="11184" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,23 +32,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>185.3,188.3</t>
-  </si>
-  <si>
-    <t>191.8,181.4</t>
-  </si>
-  <si>
-    <t>185.3,181.4</t>
-  </si>
-  <si>
-    <t>191.8,188.4</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -97,7 +80,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -200,11 +183,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -231,11 +288,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -886,91 +975,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD7213C-64FD-4E00-B37D-1A2320682C8B}">
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="22" width="5.77734375" customWidth="1"/>
+    <col min="1" max="7" width="5.77734375" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="22" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
-      <c r="B1" s="4">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4">
-        <v>3</v>
-      </c>
-      <c r="E1" s="4">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4">
-        <v>5</v>
-      </c>
-      <c r="G1" s="4">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4">
-        <v>10</v>
-      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28"/>
       <c r="L1" s="4"/>
-      <c r="M1" s="4">
-        <v>1</v>
-      </c>
-      <c r="N1" s="4">
-        <v>2</v>
-      </c>
-      <c r="O1" s="4">
-        <v>3</v>
-      </c>
-      <c r="P1" s="4">
-        <v>4</v>
-      </c>
-      <c r="Q1" s="4">
-        <v>5</v>
-      </c>
-      <c r="R1" s="4">
-        <v>6</v>
-      </c>
-      <c r="S1" s="4">
-        <v>7</v>
-      </c>
-      <c r="T1" s="4">
-        <v>8</v>
-      </c>
-      <c r="U1" s="4">
-        <v>9</v>
-      </c>
-      <c r="V1" s="4">
-        <v>10</v>
-      </c>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
     </row>
     <row r="2" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A2" s="29"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -979,9 +1024,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
-      <c r="L2" s="4">
-        <v>1</v>
-      </c>
+      <c r="L2" s="4"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -994,15 +1037,9 @@
       <c r="V2" s="2"/>
     </row>
     <row r="3" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="A3" s="30"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1011,9 +1048,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="4">
-        <v>2</v>
-      </c>
+      <c r="L3" s="4"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -1026,9 +1061,7 @@
       <c r="V3" s="2"/>
     </row>
     <row r="4" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
+      <c r="A4" s="30"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -1039,9 +1072,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="4">
-        <v>3</v>
-      </c>
+      <c r="L4" s="4"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1054,9 +1085,7 @@
       <c r="V4" s="2"/>
     </row>
     <row r="5" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
+      <c r="A5" s="30"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1067,9 +1096,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
-      <c r="L5" s="4">
-        <v>4</v>
-      </c>
+      <c r="L5" s="4"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1082,9 +1109,7 @@
       <c r="V5" s="2"/>
     </row>
     <row r="6" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
+      <c r="A6" s="30"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1095,9 +1120,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="4">
-        <v>5</v>
-      </c>
+      <c r="L6" s="4"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1110,9 +1133,7 @@
       <c r="V6" s="2"/>
     </row>
     <row r="7" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
+      <c r="A7" s="30"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1123,9 +1144,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="4">
-        <v>6</v>
-      </c>
+      <c r="L7" s="4"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1138,9 +1157,7 @@
       <c r="V7" s="3"/>
     </row>
     <row r="8" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
+      <c r="A8" s="30"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -1151,9 +1168,7 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="4">
-        <v>7</v>
-      </c>
+      <c r="L8" s="4"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1166,9 +1181,7 @@
       <c r="V8" s="3"/>
     </row>
     <row r="9" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
+      <c r="A9" s="30"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1179,9 +1192,7 @@
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="4">
-        <v>8</v>
-      </c>
+      <c r="L9" s="4"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1194,9 +1205,7 @@
       <c r="V9" s="3"/>
     </row>
     <row r="10" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
+      <c r="A10" s="30"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1207,9 +1216,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="4">
-        <v>9</v>
-      </c>
+      <c r="L10" s="4"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1221,10 +1228,8 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
     </row>
-    <row r="11" spans="1:22" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
+    <row r="11" spans="1:22" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="30"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -1235,9 +1240,7 @@
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="4">
-        <v>10</v>
-      </c>
+      <c r="L11" s="4"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1249,177 +1252,548 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3">
-        <v>181.4</v>
-      </c>
-      <c r="C12" s="28">
-        <v>188.3</v>
-      </c>
-      <c r="D12" s="28">
-        <v>194.4</v>
-      </c>
-      <c r="E12" s="28">
-        <v>200.7</v>
-      </c>
-      <c r="F12" s="28">
-        <v>207.4</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>0</v>
-      </c>
-      <c r="R12" s="1">
-        <v>0</v>
-      </c>
-      <c r="S12" s="1">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1">
-        <v>0</v>
-      </c>
-      <c r="V12" s="1">
-        <v>0</v>
+    <row r="12" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
+      <c r="B12" s="45">
+        <v>182</v>
+      </c>
+      <c r="C12" s="46">
+        <v>188.5</v>
+      </c>
+      <c r="D12" s="46">
+        <v>195.1</v>
+      </c>
+      <c r="E12" s="46">
+        <v>201.8</v>
+      </c>
+      <c r="F12" s="47">
+        <v>208.3</v>
+      </c>
+      <c r="G12" s="55">
+        <v>216.2</v>
+      </c>
+      <c r="H12" s="56">
+        <v>222.7</v>
+      </c>
+      <c r="I12" s="56">
+        <v>229.3</v>
+      </c>
+      <c r="J12" s="56">
+        <v>235.9</v>
+      </c>
+      <c r="K12" s="57">
+        <v>242</v>
+      </c>
+      <c r="M12" s="55">
+        <v>261.8</v>
+      </c>
+      <c r="N12" s="56">
+        <f>C13+M12</f>
+        <v>268.3</v>
+      </c>
+      <c r="O12" s="56">
+        <f>D13+N12</f>
+        <v>274.89999999999998</v>
+      </c>
+      <c r="P12" s="56">
+        <f t="shared" ref="P12:V12" si="0">E13+O12</f>
+        <v>281.60000000000002</v>
+      </c>
+      <c r="Q12" s="57">
+        <f t="shared" si="0"/>
+        <v>288.10000000000002</v>
+      </c>
+      <c r="R12" s="56">
+        <f t="shared" si="0"/>
+        <v>296</v>
+      </c>
+      <c r="S12" s="56">
+        <f t="shared" si="0"/>
+        <v>302.5</v>
+      </c>
+      <c r="T12" s="56">
+        <f t="shared" si="0"/>
+        <v>309.10000000000002</v>
+      </c>
+      <c r="U12" s="56">
+        <f t="shared" si="0"/>
+        <v>315.70000000000005</v>
+      </c>
+      <c r="V12" s="57">
+        <f t="shared" si="0"/>
+        <v>321.80000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>185.4</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="A13" s="48">
+        <v>186.3</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33">
         <f>C12-B12</f>
+        <v>6.5</v>
+      </c>
+      <c r="D13" s="33">
+        <f>D12-C12</f>
+        <v>6.5999999999999943</v>
+      </c>
+      <c r="E13" s="33">
+        <f>E12-D12</f>
+        <v>6.7000000000000171</v>
+      </c>
+      <c r="F13" s="34">
+        <f>F12-E12</f>
+        <v>6.5</v>
+      </c>
+      <c r="G13" s="33">
+        <f t="shared" ref="G13:K13" si="1">G12-F12</f>
+        <v>7.8999999999999773</v>
+      </c>
+      <c r="H13" s="33">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="I13" s="33">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000227</v>
+      </c>
+      <c r="J13" s="33">
+        <f t="shared" si="1"/>
+        <v>6.5999999999999943</v>
+      </c>
+      <c r="K13" s="34">
+        <f t="shared" si="1"/>
+        <v>6.0999999999999943</v>
+      </c>
+      <c r="M13" s="58">
+        <f>M12-K12</f>
+        <v>19.800000000000011</v>
+      </c>
+      <c r="N13" s="33">
+        <f>N12-M12</f>
+        <v>6.5</v>
+      </c>
+      <c r="O13" s="33">
+        <f t="shared" ref="O13:P13" si="2">O12-N12</f>
+        <v>6.5999999999999659</v>
+      </c>
+      <c r="P13" s="33">
+        <f t="shared" si="2"/>
+        <v>6.7000000000000455</v>
+      </c>
+      <c r="Q13" s="34">
+        <f>Q12-P12</f>
+        <v>6.5</v>
+      </c>
+      <c r="R13" s="33">
+        <f>R12-Q12</f>
+        <v>7.8999999999999773</v>
+      </c>
+      <c r="S13" s="33">
+        <f>S12-R12</f>
+        <v>6.5</v>
+      </c>
+      <c r="T13" s="33">
+        <f t="shared" ref="T13:U13" si="3">T12-S12</f>
+        <v>6.6000000000000227</v>
+      </c>
+      <c r="U13" s="33">
+        <f t="shared" si="3"/>
+        <v>6.6000000000000227</v>
+      </c>
+      <c r="V13" s="34">
+        <f>V12-U12</f>
+        <v>6.1000000000000227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="49">
+        <v>192.8</v>
+      </c>
+      <c r="B14" s="32">
+        <f t="shared" ref="B14:B22" si="4">A14-A13</f>
+        <v>6.5</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="36"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="36"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="50">
+        <v>199.3</v>
+      </c>
+      <c r="B15" s="33">
+        <f t="shared" si="4"/>
+        <v>6.5</v>
+      </c>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="36"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
+      <c r="U15" s="32"/>
+      <c r="V15" s="36"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="49">
+        <v>205.9</v>
+      </c>
+      <c r="B16" s="32">
+        <f t="shared" si="4"/>
+        <v>6.5999999999999943</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="36"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="36"/>
+    </row>
+    <row r="17" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="51">
+        <v>212.2</v>
+      </c>
+      <c r="B17" s="37">
+        <f t="shared" si="4"/>
+        <v>6.2999999999999829</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="38"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="52">
+        <v>220.2</v>
+      </c>
+      <c r="B18" s="41">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="42"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="42"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="53">
+        <v>227.1</v>
+      </c>
+      <c r="B19" s="32">
+        <f t="shared" si="4"/>
         <v>6.9000000000000057</v>
       </c>
-      <c r="D13" s="1">
-        <f>D12-C12</f>
-        <v>6.0999999999999943</v>
-      </c>
-      <c r="E13" s="1">
-        <f>E12-D12</f>
-        <v>6.2999999999999829</v>
-      </c>
-      <c r="F13" s="1">
-        <f>F12-E12</f>
-        <v>6.7000000000000171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>191.8</v>
-      </c>
-      <c r="B14">
-        <f>A14-A13</f>
-        <v>6.4000000000000057</v>
-      </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="28">
-        <v>198.6</v>
-      </c>
-      <c r="B15" s="1">
-        <f>A15-A14</f>
-        <v>6.7999999999999829</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A16" s="28">
-        <v>206</v>
-      </c>
-      <c r="B16">
-        <f>A16-A15</f>
-        <v>7.4000000000000057</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="28">
-        <v>216</v>
-      </c>
-      <c r="B17">
-        <f>A17-A16</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
-        <v>225.4</v>
-      </c>
-      <c r="B18">
-        <f>A18-A17</f>
-        <v>9.4000000000000057</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="26">
-        <v>225.4</v>
-      </c>
-      <c r="B19">
-        <f>A19-A18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="26">
-        <v>232.4</v>
-      </c>
-      <c r="B20" s="1">
-        <f>A20-A19</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="26">
-        <v>240</v>
-      </c>
-      <c r="B21">
-        <f>A21-A20</f>
-        <v>7.5999999999999943</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="26">
-        <v>247</v>
-      </c>
-      <c r="B22">
-        <f>A22-A21</f>
-        <v>7</v>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="36"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="36"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="53">
+        <v>233.3</v>
+      </c>
+      <c r="B20" s="33">
+        <f t="shared" si="4"/>
+        <v>6.2000000000000171</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="36"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="36"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="53">
+        <v>240.2</v>
+      </c>
+      <c r="B21" s="32">
+        <f t="shared" si="4"/>
+        <v>6.8999999999999773</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="36"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="36"/>
+    </row>
+    <row r="22" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="54">
+        <v>246.1</v>
+      </c>
+      <c r="B22" s="37">
+        <f t="shared" si="4"/>
+        <v>5.9000000000000057</v>
+      </c>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="38"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="38"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C23" s="1">
+        <f>C12-$B$12</f>
+        <v>6.5</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" ref="D23:V23" si="5">D12-$B$12</f>
+        <v>13.099999999999994</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="5"/>
+        <v>19.800000000000011</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="5"/>
+        <v>26.300000000000011</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="5"/>
+        <v>34.199999999999989</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="5"/>
+        <v>40.699999999999989</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="5"/>
+        <v>47.300000000000011</v>
+      </c>
+      <c r="J23" s="1">
+        <f t="shared" si="5"/>
+        <v>53.900000000000006</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1">
+        <f t="shared" si="5"/>
+        <v>79.800000000000011</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="5"/>
+        <v>86.300000000000011</v>
+      </c>
+      <c r="O23" s="1">
+        <f t="shared" si="5"/>
+        <v>92.899999999999977</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="5"/>
+        <v>99.600000000000023</v>
+      </c>
+      <c r="Q23" s="1">
+        <f t="shared" si="5"/>
+        <v>106.10000000000002</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="5"/>
+        <v>114</v>
+      </c>
+      <c r="S23" s="1">
+        <f t="shared" si="5"/>
+        <v>120.5</v>
+      </c>
+      <c r="T23" s="1">
+        <f t="shared" si="5"/>
+        <v>127.10000000000002</v>
+      </c>
+      <c r="U23" s="1">
+        <f t="shared" si="5"/>
+        <v>133.70000000000005</v>
+      </c>
+      <c r="V23" s="1">
+        <f t="shared" si="5"/>
+        <v>139.80000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <f>A14-$A$13</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <f t="shared" ref="B25:B36" si="6">A15-$A$13</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <f t="shared" si="6"/>
+        <v>19.599999999999994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B27">
+        <f t="shared" si="6"/>
+        <v>25.899999999999977</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B28">
+        <f t="shared" si="6"/>
+        <v>33.899999999999977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B29">
+        <f t="shared" si="6"/>
+        <v>40.799999999999983</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B31">
+        <f t="shared" si="6"/>
+        <v>53.899999999999977</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B32">
+        <f t="shared" si="6"/>
+        <v>59.799999999999983</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/exeSecond/exe/V2/Документы/box.xlsx
+++ b/exeSecond/exe/V2/Документы/box.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\GitHub\WORK\exeSecond\exe\V2\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{507B9E3A-D845-41B3-A0BE-4C57BFDCF59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFBC1CD-87C5-4261-8EED-43ED13187D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4596" yWindow="1056" windowWidth="17280" windowHeight="11184" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1056" windowWidth="17280" windowHeight="11184" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -977,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD7213C-64FD-4E00-B37D-1A2320682C8B}">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B32"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B25">
-        <f t="shared" ref="B25:B36" si="6">A15-$A$13</f>
+        <f t="shared" ref="B25:B32" si="6">A15-$A$13</f>
         <v>13</v>
       </c>
     </row>

--- a/exeSecond/exe/V2/Документы/box.xlsx
+++ b/exeSecond/exe/V2/Документы/box.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anton\Documents\GitHub\WORK\exeSecond\exe\V2\Документы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFBC1CD-87C5-4261-8EED-43ED13187D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3BBDF7-7534-474C-A45A-2D3F518ADEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1056" windowWidth="17280" windowHeight="11184" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -975,10 +975,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD7213C-64FD-4E00-B37D-1A2320682C8B}">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1791,6 +1791,73 @@
         <v>59.799999999999983</v>
       </c>
     </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <v>6.7</v>
+      </c>
+      <c r="D33">
+        <v>6.7</v>
+      </c>
+      <c r="E33">
+        <v>6.7</v>
+      </c>
+      <c r="F33">
+        <v>6.7</v>
+      </c>
+      <c r="G33">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H33">
+        <v>6.7</v>
+      </c>
+      <c r="I33">
+        <v>6.7</v>
+      </c>
+      <c r="J33">
+        <v>6.7</v>
+      </c>
+      <c r="K33">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <f>B33+C33</f>
+        <v>6.7</v>
+      </c>
+      <c r="D35">
+        <f>C35+D33</f>
+        <v>13.4</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:K35" si="7">D35+E33</f>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="7"/>
+        <v>26.8</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="7"/>
+        <v>41.7</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="7"/>
+        <v>48.400000000000006</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="7"/>
+        <v>55.100000000000009</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="7"/>
+        <v>61.800000000000011</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
